--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/94.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/94.xlsx
@@ -479,13 +479,13 @@
         <v>-18.10552345012102</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.6925257215853</v>
+        <v>-10.69197584486595</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.017978086753455</v>
+        <v>-3.985338975769032</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.794763873363663</v>
+        <v>-6.838596903277762</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-16.84313434476063</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05045618897525</v>
+        <v>-11.05056092739798</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.060907747771475</v>
+        <v>-4.021670116154822</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.801126732544741</v>
+        <v>-6.838767103214704</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.32359730003108</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88385981866816</v>
+        <v>-11.88248512686978</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.812599132075299</v>
+        <v>-3.778336575538502</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.634435532763885</v>
+        <v>-6.672233011067949</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.74899352849689</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73696736413787</v>
+        <v>-12.74020116293978</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.902006468181446</v>
+        <v>-3.858186530570189</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.978475066838763</v>
+        <v>-7.021679666216459</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.13523354541615</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.45168926857054</v>
+        <v>-13.45957083488126</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.656146113116672</v>
+        <v>-3.613452113549803</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.53920212189317</v>
+        <v>-6.57614860051252</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.53854905383888</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.14245225880285</v>
+        <v>-14.15083133262156</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.710806477480879</v>
+        <v>-3.663202864348363</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.711326627353342</v>
+        <v>-6.747749413859024</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.959320191712875</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.7587724150771</v>
+        <v>-14.77196945634156</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.534125850631785</v>
+        <v>-3.491693697121751</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.397936174230946</v>
+        <v>-6.422981749567167</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.400083829819121</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.6719605382875</v>
+        <v>-15.68615259456793</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.378000139244202</v>
+        <v>-3.333695786427801</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.182724900118652</v>
+        <v>-6.193539142265918</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.853044451098796</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.3236560968401</v>
+        <v>-16.33799216845179</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.367487020062296</v>
+        <v>-3.320302360620715</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.748780522429642</v>
+        <v>-5.762592901927663</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.322189248033322</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.86025722111108</v>
+        <v>-16.88459581209385</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.221416197257158</v>
+        <v>-3.178067582548203</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.516444516200371</v>
+        <v>-5.531841064342241</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.816452106067367</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.48413163612501</v>
+        <v>-17.50513168988314</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.342965136839743</v>
+        <v>-3.307079134750572</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.920077029456907</v>
+        <v>-4.936285300374964</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.352072643327132</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.37845375094048</v>
+        <v>-18.39688771334163</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.12123389591227</v>
+        <v>-3.08444452492702</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.273775499675099</v>
+        <v>-4.288124663589631</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.04363351084614436</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.10721060401947</v>
+        <v>-19.11809030768095</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.004489831472599</v>
+        <v>-2.967373152916306</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.715428060384008</v>
+        <v>-3.741141343165158</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.344466153518244</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.87030856745232</v>
+        <v>-19.8894102372984</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.930531412719688</v>
+        <v>-2.891424704131452</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.118091743230256</v>
+        <v>-3.143098041657953</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>2.522588778427894</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.72964804907469</v>
+        <v>-20.75661819292865</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.922702215620336</v>
+        <v>-2.877795616873216</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.513986705507332</v>
+        <v>-2.551195030183517</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3.550295314487559</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.44367606145675</v>
+        <v>-21.47279334297675</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.843480691125052</v>
+        <v>-2.798587184680773</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.093488122836774</v>
+        <v>-2.130212032307815</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>4.391542171053558</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.3517058173475</v>
+        <v>-22.38405689766941</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.747841418866243</v>
+        <v>-2.70034254415646</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.865799884116316</v>
+        <v>-1.895244473207358</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>5.012966600854223</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.19466682811488</v>
+        <v>-23.22810456957265</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.761234844673329</v>
+        <v>-2.717833860753006</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.396663396388746</v>
+        <v>-1.437236442895255</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>5.387668940664946</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.99422685496193</v>
+        <v>-24.02499376663999</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.538953727026503</v>
+        <v>-2.497411850109707</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.159836730284763</v>
+        <v>-1.193549410102207</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>5.5051586300364</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.44574110306454</v>
+        <v>-24.48056662862353</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.379044340117661</v>
+        <v>-2.339296108690181</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7694242595444913</v>
+        <v>-0.803424970024454</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>5.368684089726459</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.1084080113985</v>
+        <v>-25.14305024471771</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.169829340706879</v>
+        <v>-2.135867907135441</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6189936998930589</v>
+        <v>-0.6375978622311516</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>5.001742892043902</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.6776744312596</v>
+        <v>-25.71108598811168</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.164841173324181</v>
+        <v>-2.131665277923247</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2458630689038659</v>
+        <v>-0.2741293507391525</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.445260753954225</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.11596545349206</v>
+        <v>-26.14902351816742</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.111228193187312</v>
+        <v>-2.083459418860012</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2871823766723534</v>
+        <v>-0.3108270756045107</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.753805615025215</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.39199047430417</v>
+        <v>-26.42540203115625</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.763247875957076</v>
+        <v>-1.736893070336681</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.267268984050088</v>
+        <v>-0.2877715303002311</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.985949690756734</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.30977081245813</v>
+        <v>-26.34543424539899</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.664112958839526</v>
+        <v>-1.643034351264347</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4266939557537864</v>
+        <v>-0.447026302066987</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.200236703364137</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.23344268689087</v>
+        <v>-26.2803916848813</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.738136839106645</v>
+        <v>-1.718419831027005</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3833453410448314</v>
+        <v>-0.39516769051091</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.447736082672793</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.39861517954208</v>
+        <v>-26.43786590346158</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.455185990091261</v>
+        <v>-1.43515476674342</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7178929555594575</v>
+        <v>-0.7281049517760039</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7666793758429005</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.31665736375288</v>
+        <v>-26.36486322281611</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.366852222818135</v>
+        <v>-1.351822259155834</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7899137134917927</v>
+        <v>-0.7970097416320082</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.1836593671202837</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.12837695658601</v>
+        <v>-26.17209215577454</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.446558162518564</v>
+        <v>-1.431619844976154</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9311011073369666</v>
+        <v>-0.9360499978111391</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.2883377849686467</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.79077883550927</v>
+        <v>-25.83266111229995</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.359559810135294</v>
+        <v>-1.345681969123064</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.413290620997738</v>
+        <v>-1.415319927938205</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.6487063420546865</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.80870219809959</v>
+        <v>-25.85570356530139</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.192423472057819</v>
+        <v>-1.181124814705409</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.708247111718984</v>
+        <v>-1.716063216515495</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.9092055576534297</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.45752735897597</v>
+        <v>-25.50226375778615</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.16360731350318</v>
+        <v>-1.154743824479331</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.21011435655087</v>
+        <v>-2.220339445070258</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.087705947103082</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.90593554795121</v>
+        <v>-24.94180845773754</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.185065597860769</v>
+        <v>-1.178755107891057</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.313844671965865</v>
+        <v>-2.320718130957772</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.209955199854627</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.49327925468285</v>
+        <v>-24.53414033185187</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.352791089566121</v>
+        <v>-1.34731850697828</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.522496702354454</v>
+        <v>-2.523007302165281</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.302359673327273</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.84293220332295</v>
+        <v>-23.88027145102755</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.351966274487093</v>
+        <v>-1.346140199722525</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.712086339805489</v>
+        <v>-2.704793927122648</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.388549918824119</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.08216466979593</v>
+        <v>-23.11649268784693</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.333244281423424</v>
+        <v>-1.329997390318676</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.846439551567282</v>
+        <v>-2.847657135731562</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.487380664673111</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.69798413520832</v>
+        <v>-22.72757273963062</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.408747591911659</v>
+        <v>-1.403942716768745</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.159450327907269</v>
+        <v>-3.165328771883204</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.612837201735767</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.06362278561816</v>
+        <v>-22.10492900108381</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.31902604053731</v>
+        <v>-1.309704320914001</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.388578719940317</v>
+        <v>-3.395740209594741</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.773221888870532</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.57562028949567</v>
+        <v>-21.61667775120732</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.48688245527108</v>
+        <v>-1.476552628328958</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.619854249639407</v>
+        <v>-3.627159754625091</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.97029570410998</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.11323943003443</v>
+        <v>-21.13217089994356</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.397959534370076</v>
+        <v>-1.382117847931588</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.622341787179336</v>
+        <v>-3.627866738978544</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.202523203702542</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.29269244173209</v>
+        <v>-20.32849989000421</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.123217559236455</v>
+        <v>-1.105346565857499</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.73379656127095</v>
+        <v>-3.743000450168683</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.467202139439355</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.46758933204083</v>
+        <v>-19.48988552378029</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.131570448449476</v>
+        <v>-1.11453736245239</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.872601155998929</v>
+        <v>-3.880168507041447</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.760302713282714</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.04312378160922</v>
+        <v>-19.06717434192948</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.15116962580354</v>
+        <v>-1.131570448449476</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.09901944134374</v>
+        <v>-4.108825576172193</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.076856768272954</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.55339310151162</v>
+        <v>-18.57030835678313</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.140643414318792</v>
+        <v>-1.121934513557966</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.210618230766613</v>
+        <v>-4.217085828370426</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.414113059289151</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.09670739378653</v>
+        <v>-18.10526975984502</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.104809781440988</v>
+        <v>-1.086624572793831</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.345207103979557</v>
+        <v>-4.343832412181175</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.772299587893668</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.33652901388739</v>
+        <v>-17.35127094688718</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.196285701396128</v>
+        <v>-1.174840509341381</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.653478466690839</v>
+        <v>-4.658257157228069</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.15283571914762</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.49231114204721</v>
+        <v>-16.51040470457448</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.122366559551743</v>
+        <v>-1.102296059295377</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.60220900876264</v>
+        <v>-4.600402270970481</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.557800856835879</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.85702023895529</v>
+        <v>-15.86202149864084</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.066619534051673</v>
+        <v>-1.038510359850487</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.833340523130472</v>
+        <v>-4.836626691143745</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.993121850349606</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.97645813442648</v>
+        <v>-14.99074183682681</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.026151225967898</v>
+        <v>-1.002388696310165</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954745447381797</v>
+        <v>-4.955164401072732</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.462233046277629</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.18120547521436</v>
+        <v>-14.19148293294511</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.02708077946966</v>
+        <v>-1.004103787982431</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.138993425273409</v>
+        <v>-5.141939193412797</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.96391954009471</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.46988756952054</v>
+        <v>-13.49391194523511</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9727869995850223</v>
+        <v>-0.9481080087283688</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.0398716004587</v>
+        <v>-5.046129721217046</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.49237515350726</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.77062767474395</v>
+        <v>-12.79174555922765</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9672751400886558</v>
+        <v>-0.9391135966761029</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.11959063246197</v>
+        <v>-5.124539522936143</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.040669992640963</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.40512985631148</v>
+        <v>-12.42334124956433</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.164759436153252</v>
+        <v>-1.137304877094152</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.290314261518079</v>
+        <v>-5.296703305304841</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.602360386203167</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.72579644646</v>
+        <v>-11.73760570362324</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.253315772574687</v>
+        <v>-1.224460337111523</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.769139053348526</v>
+        <v>-5.773354774863561</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.166655431973135</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.30304598770067</v>
+        <v>-11.31566696764009</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.266800844501665</v>
+        <v>-1.235942286703716</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.902012834889204</v>
+        <v>-5.905691771987729</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.721208864830167</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.52864936691541</v>
+        <v>-10.53955525518257</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.255502187149255</v>
+        <v>-1.224355598688789</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.358515250374508</v>
+        <v>-6.364131848293609</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.254902445679347</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.06024604814698</v>
+        <v>-10.0807093174886</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.456796343340793</v>
+        <v>-1.422756355952306</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.20386896920804</v>
+        <v>-6.214146426938795</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.765416368883697</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.491189105131355</v>
+        <v>-9.504909838509484</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.446296316461729</v>
+        <v>-1.413487005540364</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.428794732028893</v>
+        <v>-6.440656358403498</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.24623331226704</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.20300133497928</v>
+        <v>-9.21952382116554</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.525439287139963</v>
+        <v>-1.494777113884641</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.311422237052819</v>
+        <v>-6.326923523617423</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.69041517319164</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.57328775289794</v>
+        <v>-8.599367620158658</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.607174533780859</v>
+        <v>-1.571223070177479</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.719430762812371</v>
+        <v>-6.724877160794529</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.09209431582346</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.000185288304223</v>
+        <v>-8.027587478151956</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.524562102849568</v>
+        <v>-1.492931099183957</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.586622442785901</v>
+        <v>-6.595800147077951</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.44771629602462</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.537071259883847</v>
+        <v>-7.562038281403018</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.512988507137482</v>
+        <v>-1.475033921199318</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.653249171947445</v>
+        <v>-6.665673767344243</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.75071525777852</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.121416829264728</v>
+        <v>-7.155024770659439</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.655170915998627</v>
+        <v>-1.618931421732729</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.82918353753456</v>
+        <v>-6.839474087568157</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.99325288358644</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.691766726907804</v>
+        <v>-6.724340376378018</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.539670620328919</v>
+        <v>-1.505198586946655</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.005589226023978</v>
+        <v>-7.006230748863222</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-12.16958951508706</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.450711246985943</v>
+        <v>-6.479749974688891</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.69888611518715</v>
+        <v>-1.666809973224921</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.037259506598113</v>
+        <v>-7.041462135810307</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-12.28069897176615</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.316842450429294</v>
+        <v>-6.350803884000731</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.689891703134884</v>
+        <v>-1.658129776440857</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.092391193864621</v>
+        <v>-7.100207298661132</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-12.32567306069313</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.041668429301896</v>
+        <v>-6.076075001169952</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.621144020912981</v>
+        <v>-1.597826629551867</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.048558163950522</v>
+        <v>-7.050705301616565</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-12.30424651003099</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.946448110734022</v>
+        <v>-5.983512420078949</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.901607332388437</v>
+        <v>-1.874178957935021</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.083004012727104</v>
+        <v>-7.081995905408291</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-12.21890816520658</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.844747102259494</v>
+        <v>-5.886655563655859</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.850547351305705</v>
+        <v>-1.825907637357576</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.823344370467151</v>
+        <v>-6.824876169899633</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.08101843016975</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.582416630219829</v>
+        <v>-5.627048290607273</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.864490653832143</v>
+        <v>-1.84133037010513</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.728582282498738</v>
+        <v>-6.726107837261651</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-11.89892038984448</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.671758504811767</v>
+        <v>-5.722622101351873</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.945571285330953</v>
+        <v>-1.92256810923804</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.545748273314032</v>
+        <v>-6.539791275521047</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-11.67955957440185</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.743569785898635</v>
+        <v>-5.794669043889892</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.033171883644942</v>
+        <v>-2.010600753545806</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.379318919590011</v>
+        <v>-6.374579505961306</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.42961865199642</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.945714941774885</v>
+        <v>-5.994431400648948</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.894419658128329</v>
+        <v>-1.872071097177503</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.277801203355267</v>
+        <v>-6.264604162090807</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.16280099199296</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.0976773008588</v>
+        <v>-6.150465465916639</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.152233285687599</v>
+        <v>-2.136038107072384</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.133209810771245</v>
+        <v>-6.121164892156856</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.88738319356963</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.576554461900614</v>
+        <v>-6.630219811248849</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.134781245999578</v>
+        <v>-2.11295637716242</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.897928036402585</v>
+        <v>-5.881248442582226</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.6086495414345</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.040637320731278</v>
+        <v>-7.086761503642679</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.186692226767022</v>
+        <v>-2.166674095722023</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.953216831303195</v>
+        <v>-5.939928143918842</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.32911461269653</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.52540601805187</v>
+        <v>-7.572106262288306</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.137779383350333</v>
+        <v>-2.114828576468788</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.581500169020908</v>
+        <v>-5.566483297661448</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.05691805484138</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.922155163367536</v>
+        <v>-7.964744424511671</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.171086201779684</v>
+        <v>-2.155362346066771</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.420242274919368</v>
+        <v>-5.405159942045699</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.793133611853939</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.300064484893959</v>
+        <v>-8.346371960045143</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.437475287700285</v>
+        <v>-2.419709032744062</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.026700743799924</v>
+        <v>-5.013516794838305</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.53401281053458</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.207059948860216</v>
+        <v>-9.248785118016796</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.362508761628561</v>
+        <v>-2.342831030457447</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.021791130234277</v>
+        <v>-5.004037967580896</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.271664549564187</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.942480784085653</v>
+        <v>-9.978052570906621</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.452282682214277</v>
+        <v>-2.432028889718127</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.85191850086288</v>
+        <v>-4.834440276569176</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.004240072257888</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.69746151975663</v>
+        <v>-10.73004826152968</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.516919381343878</v>
+        <v>-2.506929954275641</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.526116544646528</v>
+        <v>-4.50717198243455</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.726279400593592</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.83718575903741</v>
+        <v>-11.87198509999071</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.599139043189918</v>
+        <v>-2.584855340789595</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.420919891313258</v>
+        <v>-4.400639914211425</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.43346508559701</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.65148771888424</v>
+        <v>-12.68458506046813</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.742028436404516</v>
+        <v>-2.727901841638294</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.05677058007349</v>
+        <v>-4.033780496283419</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.122740718766575</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.68389435177139</v>
+        <v>-13.72023858446003</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.837995016234368</v>
+        <v>-2.824693236547175</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.738745451745122</v>
+        <v>-3.722772842278216</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.802226803221185</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.68176348976207</v>
+        <v>-14.71729599967452</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.872244480468324</v>
+        <v>-2.860605423242029</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.289299787491508</v>
+        <v>-3.269163825720933</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.478957576408927</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.04675389173759</v>
+        <v>-16.07444411224784</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.778490499818723</v>
+        <v>-2.760540952622717</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.039105880186122</v>
+        <v>-3.019676902769001</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.160913841349902</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.47003122596447</v>
+        <v>-17.50276198306879</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.017032257594972</v>
+        <v>-3.005602677214146</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.769810303034659</v>
+        <v>-2.754531585618365</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.853938669471995</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.94072888108409</v>
+        <v>-18.9723598847497</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.21498787656187</v>
+        <v>-3.201345697000792</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.643927811211463</v>
+        <v>-2.632655338464737</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.57023219875933</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.56820686273337</v>
+        <v>-20.59325243806959</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.425433552439775</v>
+        <v>-3.407051959249992</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.703694173683942</v>
+        <v>-2.697868098919374</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.31637030128869</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.04442946965219</v>
+        <v>-22.07158290574593</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.435737194776214</v>
+        <v>-3.426926074963732</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.594307983441321</v>
+        <v>-2.583271172145746</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.095865933576133</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.03616150096398</v>
+        <v>-24.06383862917139</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.648892977342356</v>
+        <v>-3.626426585665954</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.565216886527006</v>
+        <v>-2.556484320531574</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.906634513771623</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.20631543540281</v>
+        <v>-26.23160976449303</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.453765295789271</v>
+        <v>-3.433760257047113</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.722887489649913</v>
+        <v>-2.711444816966244</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.75061829890473</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.38118259886466</v>
+        <v>-28.40774688133052</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.956732294059861</v>
+        <v>-3.931791457146373</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.942393039094292</v>
+        <v>-2.937666717768429</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.621245499798984</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.42458994949274</v>
+        <v>-30.45732070659706</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.9377615472422</v>
+        <v>-3.912742156511662</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.275867084775897</v>
+        <v>-3.270970563513091</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.50976846692063</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.69144363272056</v>
+        <v>-32.72833774212855</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.092499474528561</v>
+        <v>-4.073070497111439</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.360076776653879</v>
+        <v>-3.355127886179706</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.398637907854893</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.19376238255682</v>
+        <v>-35.22627057051282</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.37147026348006</v>
+        <v>-4.347040026377399</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.783534219766667</v>
+        <v>-3.782709404687638</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.280972402592699</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.59440630852423</v>
+        <v>-37.62514703559661</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.226878870896036</v>
+        <v>-4.208065231712476</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.176552058772442</v>
+        <v>-4.170149922682838</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.139607691603716</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.21700404456744</v>
+        <v>-40.24600349536186</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.346830549531931</v>
+        <v>-4.325922141893694</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.427256565888654</v>
+        <v>-4.420788968284842</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.974800005273887</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.65748784808223</v>
+        <v>-42.68483766871859</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.501974338206384</v>
+        <v>-4.481013561356781</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.938419345738165</v>
+        <v>-4.928338272550036</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.768217713753054</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.02348954073044</v>
+        <v>-45.05362802187209</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.590962720621597</v>
+        <v>-4.571586112415842</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.142698546977617</v>
+        <v>-5.139569486598444</v>
       </c>
     </row>
   </sheetData>
